--- a/Code/Results/Cases/Case_5_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_167/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.021741840829927</v>
+        <v>1.045888919939244</v>
       </c>
       <c r="D2">
-        <v>1.038542255507637</v>
+        <v>1.051881940192188</v>
       </c>
       <c r="E2">
-        <v>1.035037945167128</v>
+        <v>1.053268210991738</v>
       </c>
       <c r="F2">
-        <v>1.045405090919952</v>
+        <v>1.063311325738323</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053175627420918</v>
+        <v>1.044905204617404</v>
       </c>
       <c r="J2">
-        <v>1.043291149533286</v>
+        <v>1.050946246141702</v>
       </c>
       <c r="K2">
-        <v>1.049489532037716</v>
+        <v>1.054632212339489</v>
       </c>
       <c r="L2">
-        <v>1.046029808661904</v>
+        <v>1.056014648806958</v>
       </c>
       <c r="M2">
-        <v>1.056266127604847</v>
+        <v>1.066030308212695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025553081401793</v>
+        <v>1.046711308515427</v>
       </c>
       <c r="D3">
-        <v>1.041329928732902</v>
+        <v>1.052508943949809</v>
       </c>
       <c r="E3">
-        <v>1.038116082695819</v>
+        <v>1.05397996817924</v>
       </c>
       <c r="F3">
-        <v>1.048629708354755</v>
+        <v>1.06405630977827</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054231417394779</v>
+        <v>1.045091769524372</v>
       </c>
       <c r="J3">
-        <v>1.045370579606778</v>
+        <v>1.051417107097217</v>
       </c>
       <c r="K3">
-        <v>1.051459946621062</v>
+        <v>1.055072428311693</v>
       </c>
       <c r="L3">
-        <v>1.04828342724587</v>
+        <v>1.056539676370492</v>
       </c>
       <c r="M3">
-        <v>1.058675992730659</v>
+        <v>1.066590454118424</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027976796877103</v>
+        <v>1.047244254333979</v>
       </c>
       <c r="D4">
-        <v>1.043105963540192</v>
+        <v>1.052915360384767</v>
       </c>
       <c r="E4">
-        <v>1.040079037496992</v>
+        <v>1.054441585296461</v>
       </c>
       <c r="F4">
-        <v>1.050685637168854</v>
+        <v>1.06453943265089</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054895425914856</v>
+        <v>1.045211735609936</v>
       </c>
       <c r="J4">
-        <v>1.04669095238941</v>
+        <v>1.051721900334248</v>
       </c>
       <c r="K4">
-        <v>1.052710550609599</v>
+        <v>1.055357287291029</v>
       </c>
       <c r="L4">
-        <v>1.049716660257172</v>
+        <v>1.056879790596832</v>
       </c>
       <c r="M4">
-        <v>1.060208523097302</v>
+        <v>1.066953303789797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028985871502992</v>
+        <v>1.047468495697134</v>
       </c>
       <c r="D5">
-        <v>1.043846127336697</v>
+        <v>1.053086384250075</v>
       </c>
       <c r="E5">
-        <v>1.040897556411832</v>
+        <v>1.054635901507858</v>
       </c>
       <c r="F5">
-        <v>1.05154281969571</v>
+        <v>1.064742791170016</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055170068621178</v>
+        <v>1.045261988085564</v>
       </c>
       <c r="J5">
-        <v>1.047240158105134</v>
+        <v>1.051850061463764</v>
       </c>
       <c r="K5">
-        <v>1.053230598515769</v>
+        <v>1.05547704294549</v>
       </c>
       <c r="L5">
-        <v>1.0503133517564</v>
+        <v>1.057022865531828</v>
       </c>
       <c r="M5">
-        <v>1.060846535951043</v>
+        <v>1.067105939343362</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029154730098498</v>
+        <v>1.047506157951058</v>
       </c>
       <c r="D6">
-        <v>1.043970028812432</v>
+        <v>1.053115109611215</v>
       </c>
       <c r="E6">
-        <v>1.041034601383971</v>
+        <v>1.054668542795457</v>
       </c>
       <c r="F6">
-        <v>1.051686331964262</v>
+        <v>1.064776950773773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05521592034446</v>
+        <v>1.045270415044979</v>
       </c>
       <c r="J6">
-        <v>1.047332031488827</v>
+        <v>1.051871581768095</v>
       </c>
       <c r="K6">
-        <v>1.053317585987831</v>
+        <v>1.055497150460956</v>
       </c>
       <c r="L6">
-        <v>1.050413200628108</v>
+        <v>1.057046893728762</v>
       </c>
       <c r="M6">
-        <v>1.060953298289622</v>
+        <v>1.067131572961319</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027990318519339</v>
+        <v>1.047247249910131</v>
       </c>
       <c r="D7">
-        <v>1.043115878892472</v>
+        <v>1.052917644962622</v>
       </c>
       <c r="E7">
-        <v>1.040090000695798</v>
+        <v>1.054444180770066</v>
       </c>
       <c r="F7">
-        <v>1.050697118640162</v>
+        <v>1.064542148943306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054899113307268</v>
+        <v>1.045212407799208</v>
       </c>
       <c r="J7">
-        <v>1.046698313816491</v>
+        <v>1.051723612728933</v>
       </c>
       <c r="K7">
-        <v>1.052717521763993</v>
+        <v>1.055358887470022</v>
       </c>
       <c r="L7">
-        <v>1.049724656032032</v>
+        <v>1.056881702015849</v>
       </c>
       <c r="M7">
-        <v>1.060217072661753</v>
+        <v>1.066955342948058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023038832488908</v>
+        <v>1.046166682111975</v>
       </c>
       <c r="D8">
-        <v>1.039490217430816</v>
+        <v>1.052093692315917</v>
       </c>
       <c r="E8">
-        <v>1.036084296667482</v>
+        <v>1.053508531429312</v>
       </c>
       <c r="F8">
-        <v>1.046501326693873</v>
+        <v>1.063562874098921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053536452665167</v>
+        <v>1.04496841072533</v>
       </c>
       <c r="J8">
-        <v>1.043999200084655</v>
+        <v>1.05110535120631</v>
       </c>
       <c r="K8">
-        <v>1.05016057333614</v>
+        <v>1.054780982510441</v>
       </c>
       <c r="L8">
-        <v>1.046796698541884</v>
+        <v>1.056192003407663</v>
       </c>
       <c r="M8">
-        <v>1.057086200771421</v>
+        <v>1.066219528760589</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013974851034474</v>
+        <v>1.044268835320233</v>
       </c>
       <c r="D9">
-        <v>1.032880718637354</v>
+        <v>1.050647252196431</v>
       </c>
       <c r="E9">
-        <v>1.028796270410844</v>
+        <v>1.051868025452026</v>
       </c>
       <c r="F9">
-        <v>1.0388640132627</v>
+        <v>1.061845542554791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050984777818155</v>
+        <v>1.044532717664342</v>
       </c>
       <c r="J9">
-        <v>1.03904359242624</v>
+        <v>1.050016836369524</v>
       </c>
       <c r="K9">
-        <v>1.045461939495518</v>
+        <v>1.053762777592207</v>
       </c>
       <c r="L9">
-        <v>1.041438807317059</v>
+        <v>1.05497969397541</v>
       </c>
       <c r="M9">
-        <v>1.051356517994944</v>
+        <v>1.064926051517513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007683844769608</v>
+        <v>1.043007919792841</v>
       </c>
       <c r="D10">
-        <v>1.028314524513621</v>
+        <v>1.049686751307041</v>
       </c>
       <c r="E10">
-        <v>1.023770384880818</v>
+        <v>1.050780007453413</v>
       </c>
       <c r="F10">
-        <v>1.03359493831085</v>
+        <v>1.060706345338235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0491769525538</v>
+        <v>1.04423844411677</v>
       </c>
       <c r="J10">
-        <v>1.035595884227368</v>
+        <v>1.049291876821326</v>
       </c>
       <c r="K10">
-        <v>1.042190702074935</v>
+        <v>1.053084151040742</v>
       </c>
       <c r="L10">
-        <v>1.03772332322447</v>
+        <v>1.054173616833449</v>
       </c>
       <c r="M10">
-        <v>1.047383009295371</v>
+        <v>1.064065932882404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004895988791618</v>
+        <v>1.042462976828691</v>
       </c>
       <c r="D11">
-        <v>1.026296672262497</v>
+        <v>1.049271767751481</v>
       </c>
       <c r="E11">
-        <v>1.021551412239971</v>
+        <v>1.050310250015834</v>
       </c>
       <c r="F11">
-        <v>1.031268047243797</v>
+        <v>1.060214436864409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048367522318006</v>
+        <v>1.044110126356056</v>
       </c>
       <c r="J11">
-        <v>1.034066497857598</v>
+        <v>1.048978149267948</v>
       </c>
       <c r="K11">
-        <v>1.040739145592942</v>
+        <v>1.052790358035929</v>
       </c>
       <c r="L11">
-        <v>1.036078031916955</v>
+        <v>1.053825101364987</v>
       </c>
       <c r="M11">
-        <v>1.04562343993634</v>
+        <v>1.063694035108966</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003850427162231</v>
+        <v>1.042260719187369</v>
       </c>
       <c r="D12">
-        <v>1.025540797891217</v>
+        <v>1.049117764540866</v>
       </c>
       <c r="E12">
-        <v>1.020720492171677</v>
+        <v>1.050135967836318</v>
       </c>
       <c r="F12">
-        <v>1.030396633703534</v>
+        <v>1.060031928385335</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048062744199852</v>
+        <v>1.044062329703447</v>
       </c>
       <c r="J12">
-        <v>1.033492719247494</v>
+        <v>1.048861646084572</v>
       </c>
       <c r="K12">
-        <v>1.04019450690186</v>
+        <v>1.05268124020926</v>
       </c>
       <c r="L12">
-        <v>1.03546120308463</v>
+        <v>1.053695727126297</v>
       </c>
       <c r="M12">
-        <v>1.044963767229792</v>
+        <v>1.063555978475601</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004075164816883</v>
+        <v>1.042304096937394</v>
       </c>
       <c r="D13">
-        <v>1.025703227133729</v>
+        <v>1.049150792377916</v>
       </c>
       <c r="E13">
-        <v>1.020899034875632</v>
+        <v>1.050173342570563</v>
       </c>
       <c r="F13">
-        <v>1.030583881092091</v>
+        <v>1.060071067615682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048128308545139</v>
+        <v>1.044072588286116</v>
       </c>
       <c r="J13">
-        <v>1.033616058009613</v>
+        <v>1.048886635068348</v>
       </c>
       <c r="K13">
-        <v>1.040311584331181</v>
+        <v>1.0527046458788</v>
       </c>
       <c r="L13">
-        <v>1.035593776247301</v>
+        <v>1.053723474697077</v>
       </c>
       <c r="M13">
-        <v>1.045105548673223</v>
+        <v>1.0635855883192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.004809769542992</v>
+        <v>1.04244625490572</v>
       </c>
       <c r="D14">
-        <v>1.026234322539108</v>
+        <v>1.049259034927354</v>
       </c>
       <c r="E14">
-        <v>1.021482866340498</v>
+        <v>1.05029583956884</v>
       </c>
       <c r="F14">
-        <v>1.031196162547507</v>
+        <v>1.060199346396121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048342414013921</v>
+        <v>1.044106178193134</v>
       </c>
       <c r="J14">
-        <v>1.034019186608769</v>
+        <v>1.048968518474454</v>
       </c>
       <c r="K14">
-        <v>1.040694238252863</v>
+        <v>1.052781338110452</v>
       </c>
       <c r="L14">
-        <v>1.036027162108351</v>
+        <v>1.053814405610319</v>
       </c>
       <c r="M14">
-        <v>1.045569036790999</v>
+        <v>1.063682621606287</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005261041368353</v>
+        <v>1.04253386417412</v>
       </c>
       <c r="D15">
-        <v>1.026560698396824</v>
+        <v>1.049325745366404</v>
       </c>
       <c r="E15">
-        <v>1.021841688580455</v>
+        <v>1.050371341457921</v>
       </c>
       <c r="F15">
-        <v>1.031572459278992</v>
+        <v>1.060278410844398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04847378189777</v>
+        <v>1.04412685634773</v>
       </c>
       <c r="J15">
-        <v>1.034266806085596</v>
+        <v>1.049018973455843</v>
       </c>
       <c r="K15">
-        <v>1.040929273682914</v>
+        <v>1.052828592090794</v>
       </c>
       <c r="L15">
-        <v>1.036293424215214</v>
+        <v>1.053870441785946</v>
       </c>
       <c r="M15">
-        <v>1.045853793043327</v>
+        <v>1.063742418035252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007867484103482</v>
+        <v>1.043044107975872</v>
       </c>
       <c r="D16">
-        <v>1.028447565394655</v>
+        <v>1.049714311945134</v>
       </c>
       <c r="E16">
-        <v>1.023916727344157</v>
+        <v>1.050811212572182</v>
       </c>
       <c r="F16">
-        <v>1.033748386608658</v>
+        <v>1.060739020764969</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049230100712209</v>
+        <v>1.044246941347436</v>
       </c>
       <c r="J16">
-        <v>1.035696597603784</v>
+        <v>1.049312701901087</v>
       </c>
       <c r="K16">
-        <v>1.042286281465411</v>
+        <v>1.053103650434529</v>
       </c>
       <c r="L16">
-        <v>1.037831729365749</v>
+        <v>1.054196757777077</v>
       </c>
       <c r="M16">
-        <v>1.047498944875106</v>
+        <v>1.06409062602311</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009485049451684</v>
+        <v>1.043364450703231</v>
       </c>
       <c r="D17">
-        <v>1.029620091995047</v>
+        <v>1.049958297120639</v>
       </c>
       <c r="E17">
-        <v>1.025206714318222</v>
+        <v>1.051087498101285</v>
       </c>
       <c r="F17">
-        <v>1.035100947790319</v>
+        <v>1.061028317916761</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049697308029045</v>
+        <v>1.044322028340298</v>
       </c>
       <c r="J17">
-        <v>1.03658354837204</v>
+        <v>1.049497000469781</v>
       </c>
       <c r="K17">
-        <v>1.043127968331243</v>
+        <v>1.053276203487494</v>
       </c>
       <c r="L17">
-        <v>1.038786756401464</v>
+        <v>1.054401587869435</v>
       </c>
       <c r="M17">
-        <v>1.048520302171159</v>
+        <v>1.064309193300607</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010422422392932</v>
+        <v>1.043551401583834</v>
       </c>
       <c r="D18">
-        <v>1.030300101048732</v>
+        <v>1.050100698146964</v>
       </c>
       <c r="E18">
-        <v>1.025955038270472</v>
+        <v>1.051248782004223</v>
       </c>
       <c r="F18">
-        <v>1.035885518867058</v>
+        <v>1.061197192228252</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049967261105985</v>
+        <v>1.044365738868854</v>
       </c>
       <c r="J18">
-        <v>1.037097384344248</v>
+        <v>1.049604516432074</v>
       </c>
       <c r="K18">
-        <v>1.043615538102971</v>
+        <v>1.053376856144381</v>
       </c>
       <c r="L18">
-        <v>1.039340304643487</v>
+        <v>1.054521111982223</v>
       </c>
       <c r="M18">
-        <v>1.049112294408645</v>
+        <v>1.064436731811018</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010741016340622</v>
+        <v>1.043615163971864</v>
       </c>
       <c r="D19">
-        <v>1.030531311305789</v>
+        <v>1.050149268184733</v>
       </c>
       <c r="E19">
-        <v>1.026209509471292</v>
+        <v>1.051303797842029</v>
       </c>
       <c r="F19">
-        <v>1.036152307203487</v>
+        <v>1.061254796357369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050058877234357</v>
+        <v>1.044380628342895</v>
       </c>
       <c r="J19">
-        <v>1.037272000461015</v>
+        <v>1.049641179559234</v>
       </c>
       <c r="K19">
-        <v>1.043781220585553</v>
+        <v>1.053411176967863</v>
       </c>
       <c r="L19">
-        <v>1.039528462524214</v>
+        <v>1.05456187507917</v>
       </c>
       <c r="M19">
-        <v>1.049313519458783</v>
+        <v>1.064480227899995</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009312136705105</v>
+        <v>1.043330070562862</v>
       </c>
       <c r="D20">
-        <v>1.029494696724733</v>
+        <v>1.049932110641561</v>
       </c>
       <c r="E20">
-        <v>1.025068737323924</v>
+        <v>1.051057841690111</v>
       </c>
       <c r="F20">
-        <v>1.034956283278719</v>
+        <v>1.06099726538276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049647446845283</v>
+        <v>1.04431398115215</v>
       </c>
       <c r="J20">
-        <v>1.036488751230872</v>
+        <v>1.049477225133702</v>
       </c>
       <c r="K20">
-        <v>1.043038013442757</v>
+        <v>1.053257689610974</v>
       </c>
       <c r="L20">
-        <v>1.038684654884708</v>
+        <v>1.05437960633649</v>
       </c>
       <c r="M20">
-        <v>1.048411109509024</v>
+        <v>1.064285737717849</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004593727244442</v>
+        <v>1.042404388538084</v>
       </c>
       <c r="D21">
-        <v>1.02607810562223</v>
+        <v>1.049227156309381</v>
       </c>
       <c r="E21">
-        <v>1.021311129616108</v>
+        <v>1.050259761534689</v>
       </c>
       <c r="F21">
-        <v>1.03101605938856</v>
+        <v>1.060161565726817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048279480000344</v>
+        <v>1.044096290487725</v>
       </c>
       <c r="J21">
-        <v>1.033900634291708</v>
+        <v>1.048944405034598</v>
       </c>
       <c r="K21">
-        <v>1.040581708710548</v>
+        <v>1.052758753872714</v>
       </c>
       <c r="L21">
-        <v>1.035899699762523</v>
+        <v>1.053787626503534</v>
       </c>
       <c r="M21">
-        <v>1.045432721113934</v>
+        <v>1.063654045423233</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001568821543274</v>
+        <v>1.041823293143252</v>
       </c>
       <c r="D22">
-        <v>1.023893064784645</v>
+        <v>1.04878473544088</v>
       </c>
       <c r="E22">
-        <v>1.018909691589397</v>
+        <v>1.049759173505504</v>
       </c>
       <c r="F22">
-        <v>1.028497436275043</v>
+        <v>1.059637334021668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047395486088302</v>
+        <v>1.043958646442871</v>
       </c>
       <c r="J22">
-        <v>1.032240311410172</v>
+        <v>1.048609569541534</v>
       </c>
       <c r="K22">
-        <v>1.039005604090997</v>
+        <v>1.052445111608126</v>
       </c>
       <c r="L22">
-        <v>1.034115626368876</v>
+        <v>1.05341588849915</v>
       </c>
       <c r="M22">
-        <v>1.043524731233085</v>
+        <v>1.06325735508056</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003178056980047</v>
+        <v>1.042131255182538</v>
       </c>
       <c r="D23">
-        <v>1.025054978773362</v>
+        <v>1.049019193491943</v>
       </c>
       <c r="E23">
-        <v>1.020186520373707</v>
+        <v>1.050024430565224</v>
       </c>
       <c r="F23">
-        <v>1.029836616583764</v>
+        <v>1.059915124138207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047866414709941</v>
+        <v>1.04403168718726</v>
       </c>
       <c r="J23">
-        <v>1.03312368848357</v>
+        <v>1.048787055607521</v>
       </c>
       <c r="K23">
-        <v>1.039844202053758</v>
+        <v>1.052611373284598</v>
       </c>
       <c r="L23">
-        <v>1.035064606565865</v>
+        <v>1.053612909403806</v>
       </c>
       <c r="M23">
-        <v>1.044539624011574</v>
+        <v>1.06346760208885</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009390287430593</v>
+        <v>1.043345605158488</v>
       </c>
       <c r="D24">
-        <v>1.02955136950295</v>
+        <v>1.049943942910779</v>
       </c>
       <c r="E24">
-        <v>1.02513109585065</v>
+        <v>1.051071241740586</v>
       </c>
       <c r="F24">
-        <v>1.03502166438236</v>
+        <v>1.061011296278125</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0496699848739</v>
+        <v>1.04431761759729</v>
       </c>
       <c r="J24">
-        <v>1.036531596802396</v>
+        <v>1.04948616070228</v>
       </c>
       <c r="K24">
-        <v>1.043078670591371</v>
+        <v>1.053266055218421</v>
       </c>
       <c r="L24">
-        <v>1.038730800974882</v>
+        <v>1.054389538690195</v>
       </c>
       <c r="M24">
-        <v>1.048460460539811</v>
+        <v>1.064296336125887</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016360309822588</v>
+        <v>1.044758721779053</v>
       </c>
       <c r="D25">
-        <v>1.034616729540312</v>
+        <v>1.051020531590414</v>
       </c>
       <c r="E25">
-        <v>1.030708884426359</v>
+        <v>1.052291148088256</v>
       </c>
       <c r="F25">
-        <v>1.040868694181539</v>
+        <v>1.062288520174853</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051662832325241</v>
+        <v>1.044646030023766</v>
       </c>
       <c r="J25">
-        <v>1.040349355698725</v>
+        <v>1.050298123345534</v>
       </c>
       <c r="K25">
-        <v>1.046700422513945</v>
+        <v>1.054025982992345</v>
       </c>
       <c r="L25">
-        <v>1.042848480086057</v>
+        <v>1.055292736591284</v>
       </c>
       <c r="M25">
-        <v>1.052864053871452</v>
+        <v>1.065260066091853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_167/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045888919939244</v>
+        <v>1.021741840829926</v>
       </c>
       <c r="D2">
-        <v>1.051881940192188</v>
+        <v>1.038542255507637</v>
       </c>
       <c r="E2">
-        <v>1.053268210991738</v>
+        <v>1.035037945167128</v>
       </c>
       <c r="F2">
-        <v>1.063311325738323</v>
+        <v>1.045405090919952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044905204617404</v>
+        <v>1.053175627420917</v>
       </c>
       <c r="J2">
-        <v>1.050946246141702</v>
+        <v>1.043291149533286</v>
       </c>
       <c r="K2">
-        <v>1.054632212339489</v>
+        <v>1.049489532037716</v>
       </c>
       <c r="L2">
-        <v>1.056014648806958</v>
+        <v>1.046029808661904</v>
       </c>
       <c r="M2">
-        <v>1.066030308212695</v>
+        <v>1.056266127604847</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046711308515427</v>
+        <v>1.025553081401793</v>
       </c>
       <c r="D3">
-        <v>1.052508943949809</v>
+        <v>1.041329928732902</v>
       </c>
       <c r="E3">
-        <v>1.05397996817924</v>
+        <v>1.038116082695818</v>
       </c>
       <c r="F3">
-        <v>1.06405630977827</v>
+        <v>1.048629708354755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045091769524372</v>
+        <v>1.054231417394778</v>
       </c>
       <c r="J3">
-        <v>1.051417107097217</v>
+        <v>1.045370579606778</v>
       </c>
       <c r="K3">
-        <v>1.055072428311693</v>
+        <v>1.051459946621062</v>
       </c>
       <c r="L3">
-        <v>1.056539676370492</v>
+        <v>1.04828342724587</v>
       </c>
       <c r="M3">
-        <v>1.066590454118424</v>
+        <v>1.058675992730658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047244254333979</v>
+        <v>1.027976796877103</v>
       </c>
       <c r="D4">
-        <v>1.052915360384767</v>
+        <v>1.043105963540192</v>
       </c>
       <c r="E4">
-        <v>1.054441585296461</v>
+        <v>1.040079037496991</v>
       </c>
       <c r="F4">
-        <v>1.06453943265089</v>
+        <v>1.050685637168853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045211735609936</v>
+        <v>1.054895425914856</v>
       </c>
       <c r="J4">
-        <v>1.051721900334248</v>
+        <v>1.046690952389409</v>
       </c>
       <c r="K4">
-        <v>1.055357287291029</v>
+        <v>1.052710550609599</v>
       </c>
       <c r="L4">
-        <v>1.056879790596832</v>
+        <v>1.049716660257172</v>
       </c>
       <c r="M4">
-        <v>1.066953303789797</v>
+        <v>1.060208523097302</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047468495697134</v>
+        <v>1.028985871502991</v>
       </c>
       <c r="D5">
-        <v>1.053086384250075</v>
+        <v>1.043846127336696</v>
       </c>
       <c r="E5">
-        <v>1.054635901507858</v>
+        <v>1.040897556411831</v>
       </c>
       <c r="F5">
-        <v>1.064742791170016</v>
+        <v>1.051542819695709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045261988085564</v>
+        <v>1.055170068621178</v>
       </c>
       <c r="J5">
-        <v>1.051850061463764</v>
+        <v>1.047240158105133</v>
       </c>
       <c r="K5">
-        <v>1.05547704294549</v>
+        <v>1.053230598515769</v>
       </c>
       <c r="L5">
-        <v>1.057022865531828</v>
+        <v>1.050313351756399</v>
       </c>
       <c r="M5">
-        <v>1.067105939343362</v>
+        <v>1.060846535951042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047506157951058</v>
+        <v>1.029154730098498</v>
       </c>
       <c r="D6">
-        <v>1.053115109611215</v>
+        <v>1.043970028812432</v>
       </c>
       <c r="E6">
-        <v>1.054668542795457</v>
+        <v>1.04103460138397</v>
       </c>
       <c r="F6">
-        <v>1.064776950773773</v>
+        <v>1.051686331964262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045270415044979</v>
+        <v>1.055215920344459</v>
       </c>
       <c r="J6">
-        <v>1.051871581768095</v>
+        <v>1.047332031488826</v>
       </c>
       <c r="K6">
-        <v>1.055497150460956</v>
+        <v>1.053317585987831</v>
       </c>
       <c r="L6">
-        <v>1.057046893728762</v>
+        <v>1.050413200628108</v>
       </c>
       <c r="M6">
-        <v>1.067131572961319</v>
+        <v>1.060953298289621</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047247249910131</v>
+        <v>1.027990318519339</v>
       </c>
       <c r="D7">
-        <v>1.052917644962622</v>
+        <v>1.043115878892472</v>
       </c>
       <c r="E7">
-        <v>1.054444180770066</v>
+        <v>1.040090000695798</v>
       </c>
       <c r="F7">
-        <v>1.064542148943306</v>
+        <v>1.050697118640162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045212407799208</v>
+        <v>1.054899113307268</v>
       </c>
       <c r="J7">
-        <v>1.051723612728933</v>
+        <v>1.046698313816491</v>
       </c>
       <c r="K7">
-        <v>1.055358887470022</v>
+        <v>1.052717521763993</v>
       </c>
       <c r="L7">
-        <v>1.056881702015849</v>
+        <v>1.049724656032032</v>
       </c>
       <c r="M7">
-        <v>1.066955342948058</v>
+        <v>1.060217072661754</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046166682111975</v>
+        <v>1.023038832488908</v>
       </c>
       <c r="D8">
-        <v>1.052093692315917</v>
+        <v>1.039490217430816</v>
       </c>
       <c r="E8">
-        <v>1.053508531429312</v>
+        <v>1.036084296667482</v>
       </c>
       <c r="F8">
-        <v>1.063562874098921</v>
+        <v>1.046501326693873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04496841072533</v>
+        <v>1.053536452665166</v>
       </c>
       <c r="J8">
-        <v>1.05110535120631</v>
+        <v>1.043999200084655</v>
       </c>
       <c r="K8">
-        <v>1.054780982510441</v>
+        <v>1.050160573336139</v>
       </c>
       <c r="L8">
-        <v>1.056192003407663</v>
+        <v>1.046796698541883</v>
       </c>
       <c r="M8">
-        <v>1.066219528760589</v>
+        <v>1.057086200771421</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044268835320233</v>
+        <v>1.013974851034474</v>
       </c>
       <c r="D9">
-        <v>1.050647252196431</v>
+        <v>1.032880718637355</v>
       </c>
       <c r="E9">
-        <v>1.051868025452026</v>
+        <v>1.028796270410844</v>
       </c>
       <c r="F9">
-        <v>1.061845542554791</v>
+        <v>1.0388640132627</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044532717664342</v>
+        <v>1.050984777818156</v>
       </c>
       <c r="J9">
-        <v>1.050016836369524</v>
+        <v>1.03904359242624</v>
       </c>
       <c r="K9">
-        <v>1.053762777592207</v>
+        <v>1.045461939495519</v>
       </c>
       <c r="L9">
-        <v>1.05497969397541</v>
+        <v>1.041438807317059</v>
       </c>
       <c r="M9">
-        <v>1.064926051517513</v>
+        <v>1.051356517994944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043007919792841</v>
+        <v>1.007683844769608</v>
       </c>
       <c r="D10">
-        <v>1.049686751307041</v>
+        <v>1.028314524513621</v>
       </c>
       <c r="E10">
-        <v>1.050780007453413</v>
+        <v>1.023770384880818</v>
       </c>
       <c r="F10">
-        <v>1.060706345338235</v>
+        <v>1.03359493831085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04423844411677</v>
+        <v>1.0491769525538</v>
       </c>
       <c r="J10">
-        <v>1.049291876821326</v>
+        <v>1.035595884227368</v>
       </c>
       <c r="K10">
-        <v>1.053084151040742</v>
+        <v>1.042190702074935</v>
       </c>
       <c r="L10">
-        <v>1.054173616833449</v>
+        <v>1.03772332322447</v>
       </c>
       <c r="M10">
-        <v>1.064065932882404</v>
+        <v>1.047383009295371</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042462976828691</v>
+        <v>1.004895988791618</v>
       </c>
       <c r="D11">
-        <v>1.049271767751481</v>
+        <v>1.026296672262497</v>
       </c>
       <c r="E11">
-        <v>1.050310250015834</v>
+        <v>1.021551412239971</v>
       </c>
       <c r="F11">
-        <v>1.060214436864409</v>
+        <v>1.031268047243797</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044110126356056</v>
+        <v>1.048367522318007</v>
       </c>
       <c r="J11">
-        <v>1.048978149267948</v>
+        <v>1.034066497857598</v>
       </c>
       <c r="K11">
-        <v>1.052790358035929</v>
+        <v>1.040739145592943</v>
       </c>
       <c r="L11">
-        <v>1.053825101364987</v>
+        <v>1.036078031916955</v>
       </c>
       <c r="M11">
-        <v>1.063694035108966</v>
+        <v>1.04562343993634</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042260719187369</v>
+        <v>1.00385042716223</v>
       </c>
       <c r="D12">
-        <v>1.049117764540866</v>
+        <v>1.025540797891217</v>
       </c>
       <c r="E12">
-        <v>1.050135967836318</v>
+        <v>1.020720492171676</v>
       </c>
       <c r="F12">
-        <v>1.060031928385335</v>
+        <v>1.030396633703534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044062329703447</v>
+        <v>1.048062744199852</v>
       </c>
       <c r="J12">
-        <v>1.048861646084572</v>
+        <v>1.033492719247493</v>
       </c>
       <c r="K12">
-        <v>1.05268124020926</v>
+        <v>1.040194506901859</v>
       </c>
       <c r="L12">
-        <v>1.053695727126297</v>
+        <v>1.03546120308463</v>
       </c>
       <c r="M12">
-        <v>1.063555978475601</v>
+        <v>1.044963767229792</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042304096937394</v>
+        <v>1.004075164816882</v>
       </c>
       <c r="D13">
-        <v>1.049150792377916</v>
+        <v>1.025703227133729</v>
       </c>
       <c r="E13">
-        <v>1.050173342570563</v>
+        <v>1.020899034875631</v>
       </c>
       <c r="F13">
-        <v>1.060071067615682</v>
+        <v>1.03058388109209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044072588286116</v>
+        <v>1.048128308545139</v>
       </c>
       <c r="J13">
-        <v>1.048886635068348</v>
+        <v>1.033616058009612</v>
       </c>
       <c r="K13">
-        <v>1.0527046458788</v>
+        <v>1.040311584331181</v>
       </c>
       <c r="L13">
-        <v>1.053723474697077</v>
+        <v>1.035593776247301</v>
       </c>
       <c r="M13">
-        <v>1.0635855883192</v>
+        <v>1.045105548673222</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04244625490572</v>
+        <v>1.004809769542992</v>
       </c>
       <c r="D14">
-        <v>1.049259034927354</v>
+        <v>1.026234322539108</v>
       </c>
       <c r="E14">
-        <v>1.05029583956884</v>
+        <v>1.021482866340497</v>
       </c>
       <c r="F14">
-        <v>1.060199346396121</v>
+        <v>1.031196162547507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044106178193134</v>
+        <v>1.048342414013921</v>
       </c>
       <c r="J14">
-        <v>1.048968518474454</v>
+        <v>1.03401918660877</v>
       </c>
       <c r="K14">
-        <v>1.052781338110452</v>
+        <v>1.040694238252863</v>
       </c>
       <c r="L14">
-        <v>1.053814405610319</v>
+        <v>1.036027162108351</v>
       </c>
       <c r="M14">
-        <v>1.063682621606287</v>
+        <v>1.045569036790998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04253386417412</v>
+        <v>1.005261041368353</v>
       </c>
       <c r="D15">
-        <v>1.049325745366404</v>
+        <v>1.026560698396824</v>
       </c>
       <c r="E15">
-        <v>1.050371341457921</v>
+        <v>1.021841688580455</v>
       </c>
       <c r="F15">
-        <v>1.060278410844398</v>
+        <v>1.031572459278992</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04412685634773</v>
+        <v>1.04847378189777</v>
       </c>
       <c r="J15">
-        <v>1.049018973455843</v>
+        <v>1.034266806085596</v>
       </c>
       <c r="K15">
-        <v>1.052828592090794</v>
+        <v>1.040929273682914</v>
       </c>
       <c r="L15">
-        <v>1.053870441785946</v>
+        <v>1.036293424215214</v>
       </c>
       <c r="M15">
-        <v>1.063742418035252</v>
+        <v>1.045853793043327</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043044107975872</v>
+        <v>1.007867484103482</v>
       </c>
       <c r="D16">
-        <v>1.049714311945134</v>
+        <v>1.028447565394655</v>
       </c>
       <c r="E16">
-        <v>1.050811212572182</v>
+        <v>1.023916727344156</v>
       </c>
       <c r="F16">
-        <v>1.060739020764969</v>
+        <v>1.033748386608657</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044246941347436</v>
+        <v>1.049230100712209</v>
       </c>
       <c r="J16">
-        <v>1.049312701901087</v>
+        <v>1.035696597603783</v>
       </c>
       <c r="K16">
-        <v>1.053103650434529</v>
+        <v>1.042286281465411</v>
       </c>
       <c r="L16">
-        <v>1.054196757777077</v>
+        <v>1.037831729365748</v>
       </c>
       <c r="M16">
-        <v>1.06409062602311</v>
+        <v>1.047498944875105</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043364450703231</v>
+        <v>1.009485049451684</v>
       </c>
       <c r="D17">
-        <v>1.049958297120639</v>
+        <v>1.029620091995048</v>
       </c>
       <c r="E17">
-        <v>1.051087498101285</v>
+        <v>1.025206714318222</v>
       </c>
       <c r="F17">
-        <v>1.061028317916761</v>
+        <v>1.035100947790319</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044322028340298</v>
+        <v>1.049697308029045</v>
       </c>
       <c r="J17">
-        <v>1.049497000469781</v>
+        <v>1.036583548372041</v>
       </c>
       <c r="K17">
-        <v>1.053276203487494</v>
+        <v>1.043127968331243</v>
       </c>
       <c r="L17">
-        <v>1.054401587869435</v>
+        <v>1.038786756401465</v>
       </c>
       <c r="M17">
-        <v>1.064309193300607</v>
+        <v>1.048520302171159</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043551401583834</v>
+        <v>1.010422422392932</v>
       </c>
       <c r="D18">
-        <v>1.050100698146964</v>
+        <v>1.030300101048732</v>
       </c>
       <c r="E18">
-        <v>1.051248782004223</v>
+        <v>1.025955038270471</v>
       </c>
       <c r="F18">
-        <v>1.061197192228252</v>
+        <v>1.035885518867057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044365738868854</v>
+        <v>1.049967261105984</v>
       </c>
       <c r="J18">
-        <v>1.049604516432074</v>
+        <v>1.037097384344247</v>
       </c>
       <c r="K18">
-        <v>1.053376856144381</v>
+        <v>1.043615538102971</v>
       </c>
       <c r="L18">
-        <v>1.054521111982223</v>
+        <v>1.039340304643486</v>
       </c>
       <c r="M18">
-        <v>1.064436731811018</v>
+        <v>1.049112294408644</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043615163971864</v>
+        <v>1.010741016340622</v>
       </c>
       <c r="D19">
-        <v>1.050149268184733</v>
+        <v>1.030531311305789</v>
       </c>
       <c r="E19">
-        <v>1.051303797842029</v>
+        <v>1.026209509471292</v>
       </c>
       <c r="F19">
-        <v>1.061254796357369</v>
+        <v>1.036152307203487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044380628342895</v>
+        <v>1.050058877234357</v>
       </c>
       <c r="J19">
-        <v>1.049641179559234</v>
+        <v>1.037272000461015</v>
       </c>
       <c r="K19">
-        <v>1.053411176967863</v>
+        <v>1.043781220585553</v>
       </c>
       <c r="L19">
-        <v>1.05456187507917</v>
+        <v>1.039528462524214</v>
       </c>
       <c r="M19">
-        <v>1.064480227899995</v>
+        <v>1.049313519458783</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043330070562862</v>
+        <v>1.009312136705106</v>
       </c>
       <c r="D20">
-        <v>1.049932110641561</v>
+        <v>1.029494696724734</v>
       </c>
       <c r="E20">
-        <v>1.051057841690111</v>
+        <v>1.025068737323925</v>
       </c>
       <c r="F20">
-        <v>1.06099726538276</v>
+        <v>1.034956283278719</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04431398115215</v>
+        <v>1.049647446845283</v>
       </c>
       <c r="J20">
-        <v>1.049477225133702</v>
+        <v>1.036488751230873</v>
       </c>
       <c r="K20">
-        <v>1.053257689610974</v>
+        <v>1.043038013442758</v>
       </c>
       <c r="L20">
-        <v>1.05437960633649</v>
+        <v>1.038684654884709</v>
       </c>
       <c r="M20">
-        <v>1.064285737717849</v>
+        <v>1.048411109509025</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042404388538084</v>
+        <v>1.004593727244443</v>
       </c>
       <c r="D21">
-        <v>1.049227156309381</v>
+        <v>1.026078105622231</v>
       </c>
       <c r="E21">
-        <v>1.050259761534689</v>
+        <v>1.021311129616108</v>
       </c>
       <c r="F21">
-        <v>1.060161565726817</v>
+        <v>1.03101605938856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044096290487725</v>
+        <v>1.048279480000344</v>
       </c>
       <c r="J21">
-        <v>1.048944405034598</v>
+        <v>1.033900634291708</v>
       </c>
       <c r="K21">
-        <v>1.052758753872714</v>
+        <v>1.040581708710548</v>
       </c>
       <c r="L21">
-        <v>1.053787626503534</v>
+        <v>1.035899699762523</v>
       </c>
       <c r="M21">
-        <v>1.063654045423233</v>
+        <v>1.045432721113934</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041823293143252</v>
+        <v>1.001568821543273</v>
       </c>
       <c r="D22">
-        <v>1.04878473544088</v>
+        <v>1.023893064784644</v>
       </c>
       <c r="E22">
-        <v>1.049759173505504</v>
+        <v>1.018909691589397</v>
       </c>
       <c r="F22">
-        <v>1.059637334021668</v>
+        <v>1.028497436275043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043958646442871</v>
+        <v>1.047395486088301</v>
       </c>
       <c r="J22">
-        <v>1.048609569541534</v>
+        <v>1.032240311410171</v>
       </c>
       <c r="K22">
-        <v>1.052445111608126</v>
+        <v>1.039005604090997</v>
       </c>
       <c r="L22">
-        <v>1.05341588849915</v>
+        <v>1.034115626368875</v>
       </c>
       <c r="M22">
-        <v>1.06325735508056</v>
+        <v>1.043524731233084</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042131255182538</v>
+        <v>1.003178056980045</v>
       </c>
       <c r="D23">
-        <v>1.049019193491943</v>
+        <v>1.02505497877336</v>
       </c>
       <c r="E23">
-        <v>1.050024430565224</v>
+        <v>1.020186520373704</v>
       </c>
       <c r="F23">
-        <v>1.059915124138207</v>
+        <v>1.029836616583761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04403168718726</v>
+        <v>1.047866414709939</v>
       </c>
       <c r="J23">
-        <v>1.048787055607521</v>
+        <v>1.033123688483568</v>
       </c>
       <c r="K23">
-        <v>1.052611373284598</v>
+        <v>1.039844202053756</v>
       </c>
       <c r="L23">
-        <v>1.053612909403806</v>
+        <v>1.035064606565863</v>
       </c>
       <c r="M23">
-        <v>1.06346760208885</v>
+        <v>1.044539624011572</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043345605158488</v>
+        <v>1.009390287430593</v>
       </c>
       <c r="D24">
-        <v>1.049943942910779</v>
+        <v>1.029551369502949</v>
       </c>
       <c r="E24">
-        <v>1.051071241740586</v>
+        <v>1.025131095850649</v>
       </c>
       <c r="F24">
-        <v>1.061011296278125</v>
+        <v>1.035021664382358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04431761759729</v>
+        <v>1.049669984873899</v>
       </c>
       <c r="J24">
-        <v>1.04948616070228</v>
+        <v>1.036531596802396</v>
       </c>
       <c r="K24">
-        <v>1.053266055218421</v>
+        <v>1.04307867059137</v>
       </c>
       <c r="L24">
-        <v>1.054389538690195</v>
+        <v>1.038730800974881</v>
       </c>
       <c r="M24">
-        <v>1.064296336125887</v>
+        <v>1.04846046053981</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044758721779053</v>
+        <v>1.016360309822589</v>
       </c>
       <c r="D25">
-        <v>1.051020531590414</v>
+        <v>1.034616729540313</v>
       </c>
       <c r="E25">
-        <v>1.052291148088256</v>
+        <v>1.03070888442636</v>
       </c>
       <c r="F25">
-        <v>1.062288520174853</v>
+        <v>1.04086869418154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044646030023766</v>
+        <v>1.051662832325242</v>
       </c>
       <c r="J25">
-        <v>1.050298123345534</v>
+        <v>1.040349355698726</v>
       </c>
       <c r="K25">
-        <v>1.054025982992345</v>
+        <v>1.046700422513945</v>
       </c>
       <c r="L25">
-        <v>1.055292736591284</v>
+        <v>1.042848480086058</v>
       </c>
       <c r="M25">
-        <v>1.065260066091853</v>
+        <v>1.052864053871453</v>
       </c>
     </row>
   </sheetData>
